--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03580066666666667</v>
+        <v>0.04642033333333333</v>
       </c>
       <c r="H2">
-        <v>0.107402</v>
+        <v>0.139261</v>
       </c>
       <c r="I2">
-        <v>0.002018015507352438</v>
+        <v>0.002653834138691699</v>
       </c>
       <c r="J2">
-        <v>0.002018015507352439</v>
+        <v>0.0026538341386917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>0.08883897245955558</v>
+        <v>0.1280989678014444</v>
       </c>
       <c r="R2">
-        <v>0.799550752136</v>
+        <v>1.152890710213</v>
       </c>
       <c r="S2">
-        <v>0.0004732385774134271</v>
+        <v>0.0006831147774960661</v>
       </c>
       <c r="T2">
-        <v>0.0004732385774134271</v>
+        <v>0.0006831147774960662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03580066666666667</v>
+        <v>0.04642033333333333</v>
       </c>
       <c r="H3">
-        <v>0.107402</v>
+        <v>0.139261</v>
       </c>
       <c r="I3">
-        <v>0.002018015507352438</v>
+        <v>0.002653834138691699</v>
       </c>
       <c r="J3">
-        <v>0.002018015507352439</v>
+        <v>0.0026538341386917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>0.2593839567513334</v>
+        <v>0.3363258524156666</v>
       </c>
       <c r="R3">
-        <v>2.334455610762</v>
+        <v>3.026932671741</v>
       </c>
       <c r="S3">
-        <v>0.001381718983217076</v>
+        <v>0.001793528580146079</v>
       </c>
       <c r="T3">
-        <v>0.001381718983217076</v>
+        <v>0.001793528580146079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03580066666666667</v>
+        <v>0.04642033333333333</v>
       </c>
       <c r="H4">
-        <v>0.107402</v>
+        <v>0.139261</v>
       </c>
       <c r="I4">
-        <v>0.002018015507352438</v>
+        <v>0.002653834138691699</v>
       </c>
       <c r="J4">
-        <v>0.002018015507352439</v>
+        <v>0.0026538341386917</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>0.02344329088555556</v>
+        <v>0.02414002783711111</v>
       </c>
       <c r="R4">
-        <v>0.21098961797</v>
+        <v>0.217260250534</v>
       </c>
       <c r="S4">
-        <v>0.0001248806612843277</v>
+        <v>0.0001287317925173091</v>
       </c>
       <c r="T4">
-        <v>0.0001248806612843277</v>
+        <v>0.0001287317925173091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03580066666666667</v>
+        <v>0.04642033333333333</v>
       </c>
       <c r="H5">
-        <v>0.107402</v>
+        <v>0.139261</v>
       </c>
       <c r="I5">
-        <v>0.002018015507352438</v>
+        <v>0.002653834138691699</v>
       </c>
       <c r="J5">
-        <v>0.002018015507352439</v>
+        <v>0.0026538341386917</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>0.007166851925111111</v>
+        <v>0.009087120665777779</v>
       </c>
       <c r="R5">
-        <v>0.06450166732599999</v>
+        <v>0.081784085992</v>
       </c>
       <c r="S5">
-        <v>3.817728543760816E-05</v>
+        <v>4.845898853224558E-05</v>
       </c>
       <c r="T5">
-        <v>3.817728543760818E-05</v>
+        <v>4.845898853224559E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>39.288517</v>
       </c>
       <c r="I6">
-        <v>0.7382063329070212</v>
+        <v>0.7487035686457026</v>
       </c>
       <c r="J6">
-        <v>0.7382063329070214</v>
+        <v>0.7487035686457028</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>32.49801195266178</v>
+        <v>36.13946815080677</v>
       </c>
       <c r="R6">
-        <v>292.482107573956</v>
+        <v>325.255213357261</v>
       </c>
       <c r="S6">
-        <v>0.1731144847746154</v>
+        <v>0.192721340135468</v>
       </c>
       <c r="T6">
-        <v>0.1731144847746154</v>
+        <v>0.192721340135468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>39.288517</v>
       </c>
       <c r="I7">
-        <v>0.7382063329070212</v>
+        <v>0.7487035686457026</v>
       </c>
       <c r="J7">
-        <v>0.7382063329070214</v>
+        <v>0.7487035686457028</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>94.88474138611967</v>
@@ -883,10 +883,10 @@
         <v>853.9626724750769</v>
       </c>
       <c r="S7">
-        <v>0.5054439373693859</v>
+        <v>0.5059929062052914</v>
       </c>
       <c r="T7">
-        <v>0.505443937369386</v>
+        <v>0.5059929062052915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>39.288517</v>
       </c>
       <c r="I8">
-        <v>0.7382063329070212</v>
+        <v>0.7487035686457026</v>
       </c>
       <c r="J8">
-        <v>0.7382063329070214</v>
+        <v>0.7487035686457028</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>8.57574470208278</v>
+        <v>6.810419960066445</v>
       </c>
       <c r="R8">
-        <v>77.18170231874501</v>
+        <v>61.293779640598</v>
       </c>
       <c r="S8">
-        <v>0.04568235213348494</v>
+        <v>0.03631800158520167</v>
       </c>
       <c r="T8">
-        <v>0.04568235213348495</v>
+        <v>0.03631800158520167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>39.288517</v>
       </c>
       <c r="I9">
-        <v>0.7382063329070212</v>
+        <v>0.7487035686457026</v>
       </c>
       <c r="J9">
-        <v>0.7382063329070214</v>
+        <v>0.7487035686457028</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>2.621692181674555</v>
+        <v>2.563671772847111</v>
       </c>
       <c r="R9">
-        <v>23.595229635071</v>
+        <v>23.073045955624</v>
       </c>
       <c r="S9">
-        <v>0.01396555862953502</v>
+        <v>0.0136713207197416</v>
       </c>
       <c r="T9">
-        <v>0.01396555862953503</v>
+        <v>0.01367132071974161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.462749666666667</v>
+        <v>4.148506</v>
       </c>
       <c r="H10">
-        <v>13.388249</v>
+        <v>12.445518</v>
       </c>
       <c r="I10">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="J10">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>11.07426569517023</v>
+        <v>11.44798622409933</v>
       </c>
       <c r="R10">
-        <v>99.66839125653202</v>
+        <v>103.031876016894</v>
       </c>
       <c r="S10">
-        <v>0.0589917870320547</v>
+        <v>0.06104880231646538</v>
       </c>
       <c r="T10">
-        <v>0.0589917870320547</v>
+        <v>0.06104880231646539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.462749666666667</v>
+        <v>4.148506</v>
       </c>
       <c r="H11">
-        <v>13.388249</v>
+        <v>12.445518</v>
       </c>
       <c r="I11">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="J11">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>32.33363437917433</v>
+        <v>30.056867680862</v>
       </c>
       <c r="R11">
-        <v>291.0027094125691</v>
+        <v>270.511809127758</v>
       </c>
       <c r="S11">
-        <v>0.1722388577059741</v>
+        <v>0.1602845895672332</v>
       </c>
       <c r="T11">
-        <v>0.1722388577059741</v>
+        <v>0.1602845895672333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.462749666666667</v>
+        <v>4.148506</v>
       </c>
       <c r="H12">
-        <v>13.388249</v>
+        <v>12.445518</v>
       </c>
       <c r="I12">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="J12">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>2.922334926307223</v>
+        <v>2.157353106521334</v>
       </c>
       <c r="R12">
-        <v>26.30101433676501</v>
+        <v>19.416177958692</v>
       </c>
       <c r="S12">
-        <v>0.01556706009719781</v>
+        <v>0.0115045406893993</v>
       </c>
       <c r="T12">
-        <v>0.01556706009719781</v>
+        <v>0.0115045406893993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.462749666666667</v>
+        <v>4.148506</v>
       </c>
       <c r="H13">
-        <v>13.388249</v>
+        <v>12.445518</v>
       </c>
       <c r="I13">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="J13">
-        <v>0.2515567130807227</v>
+        <v>0.2371686297104146</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>0.8933874426874445</v>
+        <v>0.8121004718773334</v>
       </c>
       <c r="R13">
-        <v>8.040486984187</v>
+        <v>7.308904246896</v>
       </c>
       <c r="S13">
-        <v>0.0047590082454961</v>
+        <v>0.004330697137316664</v>
       </c>
       <c r="T13">
-        <v>0.004759008245496101</v>
+        <v>0.004330697137316665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1458083333333333</v>
+        <v>0.2007003333333333</v>
       </c>
       <c r="H14">
-        <v>0.437425</v>
+        <v>0.602101</v>
       </c>
       <c r="I14">
-        <v>0.008218938504903451</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="J14">
-        <v>0.008218938504903453</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>0.3618218238777778</v>
+        <v>0.553841467548111</v>
       </c>
       <c r="R14">
-        <v>3.2563964149</v>
+        <v>4.984573207933</v>
       </c>
       <c r="S14">
-        <v>0.001927397857815203</v>
+        <v>0.002953476498410602</v>
       </c>
       <c r="T14">
-        <v>0.001927397857815203</v>
+        <v>0.002953476498410603</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1458083333333333</v>
+        <v>0.2007003333333333</v>
       </c>
       <c r="H15">
-        <v>0.437425</v>
+        <v>0.602101</v>
       </c>
       <c r="I15">
-        <v>0.008218938504903451</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="J15">
-        <v>0.008218938504903453</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>1.056414473491667</v>
+        <v>1.454119473975667</v>
       </c>
       <c r="R15">
-        <v>9.507730261424999</v>
+        <v>13.087075265781</v>
       </c>
       <c r="S15">
-        <v>0.005627441074037069</v>
+        <v>0.007754398946112223</v>
       </c>
       <c r="T15">
-        <v>0.005627441074037069</v>
+        <v>0.007754398946112224</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1458083333333333</v>
+        <v>0.2007003333333333</v>
       </c>
       <c r="H16">
-        <v>0.437425</v>
+        <v>0.602101</v>
       </c>
       <c r="I16">
-        <v>0.008218938504903451</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="J16">
-        <v>0.008218938504903453</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.0954794279027778</v>
+        <v>0.1043704619437778</v>
       </c>
       <c r="R16">
-        <v>0.8593148511250002</v>
+        <v>0.9393341574940001</v>
       </c>
       <c r="S16">
-        <v>0.0005086117880700271</v>
+        <v>0.0005565775127743182</v>
       </c>
       <c r="T16">
-        <v>0.0005086117880700271</v>
+        <v>0.0005565775127743182</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1458083333333333</v>
+        <v>0.2007003333333333</v>
       </c>
       <c r="H17">
-        <v>0.437425</v>
+        <v>0.602101</v>
       </c>
       <c r="I17">
-        <v>0.008218938504903451</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="J17">
-        <v>0.008218938504903453</v>
+        <v>0.01147396750519105</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.02918903003055556</v>
+        <v>0.03928856205244444</v>
       </c>
       <c r="R17">
-        <v>0.262701270275</v>
+        <v>0.353597058472</v>
       </c>
       <c r="S17">
-        <v>0.0001554877849811526</v>
+        <v>0.0002095145478939085</v>
       </c>
       <c r="T17">
-        <v>0.0001554877849811526</v>
+        <v>0.0002095145478939086</v>
       </c>
     </row>
   </sheetData>
